--- a/data/trans_dic/P25C$productsfarma_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25C$productsfarma_2023-Estudios-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.02402428237211789</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.03323270610157993</v>
+        <v>0.03323270610157992</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.02596571569644451</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.008709846785338956</v>
+        <v>0.008659675768291958</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.008866729351174819</v>
+        <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01202894037070017</v>
+        <v>0.01110892938414361</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05334507597519778</v>
+        <v>0.05392145792184737</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1031475816067717</v>
+        <v>0.09343611987484549</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05128579535175253</v>
+        <v>0.05026702750495058</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.03022341221384904</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.02384978065790816</v>
+        <v>0.02384978065790817</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.008100095068931251</v>
+        <v>0.006816585198166243</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01324590074805808</v>
+        <v>0.01467230675179035</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01353045593212167</v>
+        <v>0.01290164918500857</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04331953376552908</v>
+        <v>0.04084481125254913</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06052554514799942</v>
+        <v>0.06292724528936919</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03915566123562238</v>
+        <v>0.04014703301987626</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.09203531965856858</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.02790328005808395</v>
+        <v>0.02790328005808396</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.06693946548135399</v>
+        <v>0.066939465481354</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04900251550649825</v>
+        <v>0.04411564830319946</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.00707193923228771</v>
+        <v>0.007108878648785736</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03821579251111436</v>
+        <v>0.03859301021223117</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1650861424311681</v>
+        <v>0.1549632973410393</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0668356351231475</v>
+        <v>0.0667740133005897</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1153656118444933</v>
+        <v>0.113477396738174</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02489880374192877</v>
+        <v>0.02249866279846362</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01763406232648113</v>
+        <v>0.01623528707966979</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02403050232716352</v>
+        <v>0.02462589725555404</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05864872399018185</v>
+        <v>0.05543471887742175</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05043976325209983</v>
+        <v>0.04947868552054944</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04809727758991682</v>
+        <v>0.0480345650998218</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1534</v>
+        <v>1525</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>417</v>
+        <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2685</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9395</v>
+        <v>9497</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>4853</v>
+        <v>4396</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>11446</v>
+        <v>11218</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2693</v>
+        <v>2266</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2942</v>
+        <v>3259</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7504</v>
+        <v>7155</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14403</v>
+        <v>13580</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>13444</v>
+        <v>13978</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>21716</v>
+        <v>22266</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7286</v>
+        <v>6559</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9335</v>
+        <v>9427</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>24546</v>
+        <v>23041</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6389</v>
+        <v>6383</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>28181</v>
+        <v>27720</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>16366</v>
+        <v>14788</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6432</v>
+        <v>5922</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>24561</v>
+        <v>25169</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>38550</v>
+        <v>36437</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>18399</v>
+        <v>18048</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>49158</v>
+        <v>49094</v>
       </c>
     </row>
     <row r="20">
